--- a/team_project/07조.xlsx
+++ b/team_project/07조.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="150" windowWidth="13020" windowHeight="10860" tabRatio="718" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="24030" windowHeight="6975" tabRatio="718" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01기능정의" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'04화면_프로그램목록'!$C$1:$C$503</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="395">
   <si>
     <t>비밀번호</t>
   </si>
@@ -1473,6 +1474,58 @@
   </si>
   <si>
     <t>매입가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문규</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 레이아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상엽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환불관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 / 아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1615,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,6 +1637,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1964,6 +2023,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1984,10 +2049,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4902,159 +4964,159 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" ht="409.6">
       <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" ht="409.6">
       <c r="E14" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" ht="409.6">
       <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" ht="409.6">
       <c r="E16" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" ht="409.6">
       <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" ht="409.6">
       <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" ht="409.6">
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" ht="409.6">
       <c r="E20" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" ht="409.6">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" ht="409.6">
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" ht="409.6">
       <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" ht="409.6">
       <c r="E24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" ht="409.6">
       <c r="E25" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" ht="409.6">
       <c r="E26" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="5:5" ht="409.6">
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="5:5" ht="409.6">
       <c r="E28" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="5:5" ht="409.6">
       <c r="E29" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="5:5" ht="409.6">
       <c r="E30" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="5:5" ht="409.6">
       <c r="E31" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="5:5" ht="409.6">
       <c r="E32" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" ht="409.6">
       <c r="E33" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="5:5" ht="409.6">
       <c r="E34" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
+    <row r="35" spans="5:5" ht="409.6">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="5:5">
+    <row r="36" spans="5:5" ht="409.6">
       <c r="E36" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" ht="409.6">
       <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="5:5">
+    <row r="38" spans="5:5" ht="409.6">
       <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="5:5">
+    <row r="39" spans="5:5" ht="409.6">
       <c r="E39" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="5:5">
+    <row r="40" spans="5:5" ht="409.6">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="5:5">
+    <row r="41" spans="5:5" ht="409.6">
       <c r="E41" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="5:5">
+    <row r="42" spans="5:5" ht="409.6">
       <c r="E42" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
+    <row r="43" spans="5:5" ht="409.6">
       <c r="E43" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="5:5">
+    <row r="44" spans="5:5" ht="409.6">
       <c r="E44" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="5:5">
+    <row r="45" spans="5:5" ht="409.6">
       <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
@@ -5070,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6598,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6613,7 +6675,7 @@
     <col min="9" max="9" width="17.125" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="30" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.25" style="30" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="30"/>
   </cols>
@@ -6809,7 +6871,7 @@
       <c r="E10" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="59" t="s">
         <v>230</v>
       </c>
       <c r="G10" s="32" t="s">
@@ -6850,7 +6912,7 @@
       <c r="E11" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="59" t="s">
         <v>368</v>
       </c>
       <c r="G11" s="32" t="s">
@@ -6891,7 +6953,7 @@
       <c r="E12" s="32">
         <v>440000</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="60">
         <v>0.01</v>
       </c>
       <c r="G12" s="33" t="s">
@@ -6932,7 +6994,7 @@
       <c r="E13" s="32">
         <v>320000</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>0.01</v>
       </c>
       <c r="G13" s="32" t="s">
@@ -6973,7 +7035,7 @@
       <c r="E14" s="32">
         <v>370000</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="60">
         <v>0.01</v>
       </c>
       <c r="G14" s="33" t="s">
@@ -7014,7 +7076,7 @@
       <c r="E15" s="33">
         <v>129000</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="60">
         <v>0.01</v>
       </c>
       <c r="G15" s="33" t="s">
@@ -7053,7 +7115,7 @@
       <c r="K16" s="53"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>223</v>
       </c>
@@ -7061,7 +7123,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:12">
       <c r="A18" s="42" t="s">
         <v>28</v>
       </c>
@@ -7080,10 +7142,14 @@
       <c r="F18" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="H18" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="42" t="s">
         <v>174</v>
       </c>
@@ -7102,10 +7168,23 @@
       <c r="F19" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="H19" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="36">
         <v>2013060101</v>
       </c>
@@ -7124,10 +7203,19 @@
       <c r="F20" s="41">
         <v>42703</v>
       </c>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H20" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="36">
         <v>2013060101</v>
       </c>
@@ -7146,10 +7234,19 @@
       <c r="F21" s="41">
         <v>42703</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="H21" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="36">
         <v>2013060101</v>
       </c>
@@ -7171,7 +7268,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:12">
       <c r="A23" s="36">
         <v>3013060102</v>
       </c>
@@ -7191,7 +7288,7 @@
         <v>42728</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" s="36">
         <v>3013060102</v>
       </c>
@@ -7211,7 +7308,7 @@
         <v>42729</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:12">
       <c r="A25" s="48"/>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -7219,7 +7316,7 @@
       <c r="E25" s="51"/>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>147</v>
       </c>
@@ -7228,7 +7325,7 @@
       </c>
       <c r="D26" s="45"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27" s="32" t="s">
         <v>171</v>
       </c>
@@ -7251,7 +7348,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:12">
       <c r="A28" s="34" t="s">
         <v>237</v>
       </c>
@@ -7274,7 +7371,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:12">
       <c r="A29" s="32"/>
       <c r="B29" s="36">
         <v>2013060101</v>
@@ -7295,7 +7392,7 @@
         <v>42703</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:12">
       <c r="A30" s="32"/>
       <c r="B30" s="36">
         <v>2013060101</v>
@@ -7316,7 +7413,7 @@
         <v>42703</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:12">
       <c r="A31" s="32"/>
       <c r="B31" s="36">
         <v>2013060101</v>
@@ -7337,7 +7434,7 @@
         <v>42703</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:12">
       <c r="A32" s="32"/>
       <c r="B32" s="36">
         <v>3013060102</v>
@@ -7663,24 +7760,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
@@ -7834,7 +7931,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="409.6">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -7844,7 +7941,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="409.6">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -7854,7 +7951,7 @@
       <c r="E17" s="22"/>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="409.6">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -7864,7 +7961,7 @@
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="409.6">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -7874,7 +7971,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="409.6">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -7884,7 +7981,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="409.6">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -7894,7 +7991,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="409.6">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -7904,7 +8001,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="409.6">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -7914,7 +8011,7 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="409.6">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -7924,7 +8021,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="409.6">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -7934,7 +8031,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="409.6">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -7944,7 +8041,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="409.6">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -7954,7 +8051,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="409.6">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -7964,7 +8061,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="409.6">
       <c r="A29" s="18">
         <v>26</v>
       </c>
@@ -7974,7 +8071,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="409.6">
       <c r="A30" s="18">
         <v>27</v>
       </c>
@@ -7984,7 +8081,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="409.6">
       <c r="A31" s="18">
         <v>28</v>
       </c>
@@ -7994,7 +8091,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="409.6">
       <c r="A32" s="18">
         <v>29</v>
       </c>
@@ -8004,7 +8101,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="409.6">
       <c r="A33" s="18">
         <v>30</v>
       </c>
@@ -8014,7 +8111,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="409.6">
       <c r="A34" s="18">
         <v>31</v>
       </c>
@@ -8024,7 +8121,7 @@
       <c r="E34" s="22"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="409.6">
       <c r="A35" s="18">
         <v>32</v>
       </c>
@@ -8034,7 +8131,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="409.6">
       <c r="A36" s="18">
         <v>33</v>
       </c>
@@ -8044,7 +8141,7 @@
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="409.6">
       <c r="A37" s="18">
         <v>34</v>
       </c>
@@ -8054,7 +8151,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="409.6">
       <c r="A38" s="18">
         <v>35</v>
       </c>
@@ -8064,7 +8161,7 @@
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="409.6">
       <c r="A39" s="18">
         <v>36</v>
       </c>
@@ -8074,7 +8171,7 @@
       <c r="E39" s="22"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="409.6">
       <c r="A40" s="18">
         <v>37</v>
       </c>
@@ -8084,7 +8181,7 @@
       <c r="E40" s="22"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="409.6">
       <c r="A41" s="18">
         <v>38</v>
       </c>
@@ -8094,7 +8191,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="409.6">
       <c r="A42" s="18">
         <v>39</v>
       </c>
@@ -8104,7 +8201,7 @@
       <c r="E42" s="22"/>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="409.6">
       <c r="A43" s="18">
         <v>40</v>
       </c>
@@ -8114,7 +8211,7 @@
       <c r="E43" s="22"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="409.6">
       <c r="A44" s="18">
         <v>41</v>
       </c>
@@ -8124,7 +8221,7 @@
       <c r="E44" s="22"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="409.6">
       <c r="A45" s="18">
         <v>42</v>
       </c>
@@ -8134,7 +8231,7 @@
       <c r="E45" s="22"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="409.6">
       <c r="A46" s="18">
         <v>43</v>
       </c>
@@ -8144,7 +8241,7 @@
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="409.6">
       <c r="A47" s="18">
         <v>44</v>
       </c>
@@ -8154,7 +8251,7 @@
       <c r="E47" s="22"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="409.6">
       <c r="A48" s="18">
         <v>45</v>
       </c>
@@ -8164,7 +8261,7 @@
       <c r="E48" s="22"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="409.6">
       <c r="A49" s="18">
         <v>46</v>
       </c>
@@ -8174,7 +8271,7 @@
       <c r="E49" s="22"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="409.6">
       <c r="A50" s="18">
         <v>47</v>
       </c>
@@ -8184,7 +8281,7 @@
       <c r="E50" s="22"/>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="409.6">
       <c r="A51" s="18">
         <v>48</v>
       </c>
@@ -8194,7 +8291,7 @@
       <c r="E51" s="22"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" ht="409.6">
       <c r="A52" s="18">
         <v>49</v>
       </c>
@@ -8204,7 +8301,7 @@
       <c r="E52" s="22"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="409.6">
       <c r="A53" s="18">
         <v>50</v>
       </c>
@@ -8214,7 +8311,7 @@
       <c r="E53" s="22"/>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="409.6">
       <c r="A54" s="18">
         <v>51</v>
       </c>
@@ -8224,7 +8321,7 @@
       <c r="E54" s="22"/>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="409.6">
       <c r="A55" s="18">
         <v>52</v>
       </c>
@@ -8234,7 +8331,7 @@
       <c r="E55" s="22"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" ht="409.6">
       <c r="A56" s="18">
         <v>53</v>
       </c>
@@ -8244,7 +8341,7 @@
       <c r="E56" s="22"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="409.6">
       <c r="A57" s="18">
         <v>54</v>
       </c>
@@ -8254,7 +8351,7 @@
       <c r="E57" s="22"/>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" ht="409.6">
       <c r="A58" s="18">
         <v>55</v>
       </c>
@@ -8264,7 +8361,7 @@
       <c r="E58" s="22"/>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="409.6">
       <c r="A59" s="18">
         <v>56</v>
       </c>
@@ -8274,7 +8371,7 @@
       <c r="E59" s="22"/>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="409.6">
       <c r="A60" s="18">
         <v>57</v>
       </c>
@@ -8284,7 +8381,7 @@
       <c r="E60" s="22"/>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="409.6">
       <c r="A61" s="18">
         <v>58</v>
       </c>
@@ -8294,7 +8391,7 @@
       <c r="E61" s="22"/>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="409.6">
       <c r="A62" s="18">
         <v>59</v>
       </c>
@@ -8304,7 +8401,7 @@
       <c r="E62" s="22"/>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" ht="409.6">
       <c r="A63" s="18">
         <v>60</v>
       </c>
@@ -8314,7 +8411,7 @@
       <c r="E63" s="22"/>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" ht="409.6">
       <c r="A64" s="18">
         <v>61</v>
       </c>
@@ -8324,7 +8421,7 @@
       <c r="E64" s="22"/>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="409.6">
       <c r="A65" s="18">
         <v>62</v>
       </c>
@@ -8334,7 +8431,7 @@
       <c r="E65" s="22"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="409.6">
       <c r="A66" s="18">
         <v>63</v>
       </c>
@@ -8344,7 +8441,7 @@
       <c r="E66" s="22"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" ht="409.6">
       <c r="A67" s="18">
         <v>64</v>
       </c>
@@ -8354,7 +8451,7 @@
       <c r="E67" s="22"/>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="409.6">
       <c r="A68" s="18">
         <v>65</v>
       </c>
@@ -8364,7 +8461,7 @@
       <c r="E68" s="22"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="409.6">
       <c r="A69" s="18">
         <v>66</v>
       </c>
@@ -8374,7 +8471,7 @@
       <c r="E69" s="22"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="409.6">
       <c r="A70" s="18">
         <v>67</v>
       </c>
@@ -8384,7 +8481,7 @@
       <c r="E70" s="22"/>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="409.6">
       <c r="A71" s="18">
         <v>68</v>
       </c>
@@ -8394,7 +8491,7 @@
       <c r="E71" s="22"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="409.6">
       <c r="A72" s="18">
         <v>69</v>
       </c>
@@ -8404,7 +8501,7 @@
       <c r="E72" s="22"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="409.6">
       <c r="A73" s="18">
         <v>70</v>
       </c>
@@ -8414,7 +8511,7 @@
       <c r="E73" s="22"/>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="409.6">
       <c r="A74" s="18">
         <v>71</v>
       </c>
@@ -8424,7 +8521,7 @@
       <c r="E74" s="22"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="409.6">
       <c r="A75" s="18">
         <v>72</v>
       </c>
@@ -8434,7 +8531,7 @@
       <c r="E75" s="22"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="409.6">
       <c r="A76" s="18">
         <v>73</v>
       </c>
@@ -8444,7 +8541,7 @@
       <c r="E76" s="22"/>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="409.6">
       <c r="A77" s="18">
         <v>74</v>
       </c>
@@ -8454,7 +8551,7 @@
       <c r="E77" s="22"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" ht="409.6">
       <c r="A78" s="18">
         <v>75</v>
       </c>
@@ -8464,7 +8561,7 @@
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="409.6">
       <c r="A79" s="18">
         <v>76</v>
       </c>
@@ -8474,7 +8571,7 @@
       <c r="E79" s="22"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="409.6">
       <c r="A80" s="18">
         <v>77</v>
       </c>
@@ -8484,7 +8581,7 @@
       <c r="E80" s="22"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="409.6">
       <c r="A81" s="18">
         <v>78</v>
       </c>
@@ -8494,7 +8591,7 @@
       <c r="E81" s="22"/>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="409.6">
       <c r="A82" s="18">
         <v>79</v>
       </c>
@@ -8504,7 +8601,7 @@
       <c r="E82" s="22"/>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="409.6">
       <c r="A83" s="18">
         <v>80</v>
       </c>
@@ -8514,7 +8611,7 @@
       <c r="E83" s="22"/>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="409.6">
       <c r="A84" s="18">
         <v>81</v>
       </c>
@@ -8524,7 +8621,7 @@
       <c r="E84" s="22"/>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="409.6">
       <c r="A85" s="18">
         <v>82</v>
       </c>
@@ -8534,7 +8631,7 @@
       <c r="E85" s="22"/>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="409.6">
       <c r="A86" s="18">
         <v>83</v>
       </c>
@@ -8544,7 +8641,7 @@
       <c r="E86" s="22"/>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="409.6">
       <c r="A87" s="18">
         <v>84</v>
       </c>
@@ -8554,7 +8651,7 @@
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="409.6">
       <c r="A88" s="18">
         <v>85</v>
       </c>
@@ -8564,7 +8661,7 @@
       <c r="E88" s="22"/>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="409.6">
       <c r="A89" s="18">
         <v>86</v>
       </c>
@@ -8574,7 +8671,7 @@
       <c r="E89" s="22"/>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="409.6">
       <c r="A90" s="18">
         <v>87</v>
       </c>
@@ -8584,7 +8681,7 @@
       <c r="E90" s="22"/>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="409.6">
       <c r="A91" s="18">
         <v>88</v>
       </c>
@@ -8594,7 +8691,7 @@
       <c r="E91" s="22"/>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="409.6">
       <c r="A92" s="18">
         <v>89</v>
       </c>
@@ -8604,7 +8701,7 @@
       <c r="E92" s="22"/>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="409.6">
       <c r="A93" s="18">
         <v>90</v>
       </c>
@@ -8614,7 +8711,7 @@
       <c r="E93" s="22"/>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="409.6">
       <c r="A94" s="18">
         <v>91</v>
       </c>
@@ -8624,7 +8721,7 @@
       <c r="E94" s="22"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="409.6">
       <c r="A95" s="18">
         <v>92</v>
       </c>
@@ -8634,7 +8731,7 @@
       <c r="E95" s="22"/>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="409.6">
       <c r="A96" s="18">
         <v>93</v>
       </c>
@@ -8644,7 +8741,7 @@
       <c r="E96" s="22"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="409.6">
       <c r="A97" s="18">
         <v>94</v>
       </c>
@@ -8654,7 +8751,7 @@
       <c r="E97" s="22"/>
       <c r="F97" s="23"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="409.6">
       <c r="A98" s="18">
         <v>95</v>
       </c>
@@ -8664,7 +8761,7 @@
       <c r="E98" s="22"/>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="409.6">
       <c r="A99" s="18">
         <v>96</v>
       </c>
@@ -8674,7 +8771,7 @@
       <c r="E99" s="22"/>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="409.6">
       <c r="A100" s="18">
         <v>97</v>
       </c>
@@ -8684,7 +8781,7 @@
       <c r="E100" s="22"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="409.6">
       <c r="A101" s="18">
         <v>98</v>
       </c>
@@ -8694,7 +8791,7 @@
       <c r="E101" s="22"/>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="409.6">
       <c r="A102" s="18">
         <v>99</v>
       </c>
@@ -8704,7 +8801,7 @@
       <c r="E102" s="22"/>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="409.6">
       <c r="A103" s="18">
         <v>100</v>
       </c>
@@ -8714,7 +8811,7 @@
       <c r="E103" s="22"/>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="409.6">
       <c r="A104" s="18">
         <v>101</v>
       </c>
@@ -8724,7 +8821,7 @@
       <c r="E104" s="22"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="409.6">
       <c r="A105" s="18">
         <v>102</v>
       </c>
@@ -8734,7 +8831,7 @@
       <c r="E105" s="22"/>
       <c r="F105" s="23"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="409.6">
       <c r="A106" s="18">
         <v>103</v>
       </c>
@@ -8744,7 +8841,7 @@
       <c r="E106" s="22"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="409.6">
       <c r="A107" s="18">
         <v>104</v>
       </c>
@@ -8754,7 +8851,7 @@
       <c r="E107" s="22"/>
       <c r="F107" s="23"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="409.6">
       <c r="A108" s="18">
         <v>105</v>
       </c>
@@ -8764,7 +8861,7 @@
       <c r="E108" s="22"/>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="409.6">
       <c r="A109" s="18">
         <v>106</v>
       </c>
@@ -8774,7 +8871,7 @@
       <c r="E109" s="22"/>
       <c r="F109" s="23"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="409.6">
       <c r="A110" s="18">
         <v>107</v>
       </c>
@@ -8784,7 +8881,7 @@
       <c r="E110" s="22"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="409.6">
       <c r="A111" s="18">
         <v>108</v>
       </c>
@@ -8794,7 +8891,7 @@
       <c r="E111" s="22"/>
       <c r="F111" s="23"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="409.6">
       <c r="A112" s="18">
         <v>109</v>
       </c>
@@ -8804,7 +8901,7 @@
       <c r="E112" s="22"/>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="409.6">
       <c r="A113" s="18">
         <v>110</v>
       </c>
@@ -8814,7 +8911,7 @@
       <c r="E113" s="22"/>
       <c r="F113" s="23"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="409.6">
       <c r="A114" s="18">
         <v>111</v>
       </c>
@@ -8824,7 +8921,7 @@
       <c r="E114" s="22"/>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" ht="409.6">
       <c r="A115" s="18">
         <v>112</v>
       </c>
@@ -8834,7 +8931,7 @@
       <c r="E115" s="22"/>
       <c r="F115" s="23"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="409.6">
       <c r="A116" s="18">
         <v>113</v>
       </c>
@@ -8844,7 +8941,7 @@
       <c r="E116" s="22"/>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="409.6">
       <c r="A117" s="18">
         <v>114</v>
       </c>
@@ -8854,7 +8951,7 @@
       <c r="E117" s="22"/>
       <c r="F117" s="23"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="409.6">
       <c r="A118" s="18">
         <v>115</v>
       </c>
@@ -8864,7 +8961,7 @@
       <c r="E118" s="22"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="409.6">
       <c r="A119" s="18">
         <v>116</v>
       </c>
@@ -8874,7 +8971,7 @@
       <c r="E119" s="22"/>
       <c r="F119" s="23"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="409.6">
       <c r="A120" s="18">
         <v>117</v>
       </c>
@@ -8884,7 +8981,7 @@
       <c r="E120" s="22"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" ht="409.6">
       <c r="A121" s="18">
         <v>118</v>
       </c>
@@ -8894,7 +8991,7 @@
       <c r="E121" s="22"/>
       <c r="F121" s="23"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="409.6">
       <c r="A122" s="18">
         <v>119</v>
       </c>
@@ -8904,7 +9001,7 @@
       <c r="E122" s="22"/>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="409.6">
       <c r="A123" s="18">
         <v>120</v>
       </c>
@@ -8914,7 +9011,7 @@
       <c r="E123" s="22"/>
       <c r="F123" s="23"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" ht="409.6">
       <c r="A124" s="18">
         <v>121</v>
       </c>
@@ -8924,7 +9021,7 @@
       <c r="E124" s="22"/>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" ht="409.6">
       <c r="A125" s="18">
         <v>122</v>
       </c>
@@ -8934,7 +9031,7 @@
       <c r="E125" s="22"/>
       <c r="F125" s="23"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" ht="409.6">
       <c r="A126" s="18">
         <v>123</v>
       </c>
@@ -8944,7 +9041,7 @@
       <c r="E126" s="22"/>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" ht="409.6">
       <c r="A127" s="18">
         <v>124</v>
       </c>
@@ -8954,7 +9051,7 @@
       <c r="E127" s="22"/>
       <c r="F127" s="23"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" ht="409.6">
       <c r="A128" s="18">
         <v>125</v>
       </c>
@@ -8964,7 +9061,7 @@
       <c r="E128" s="22"/>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" ht="409.6">
       <c r="A129" s="18">
         <v>126</v>
       </c>
@@ -8974,7 +9071,7 @@
       <c r="E129" s="22"/>
       <c r="F129" s="23"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" ht="409.6">
       <c r="A130" s="18">
         <v>127</v>
       </c>
@@ -8984,7 +9081,7 @@
       <c r="E130" s="22"/>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="409.6">
       <c r="A131" s="18">
         <v>128</v>
       </c>
@@ -8994,7 +9091,7 @@
       <c r="E131" s="22"/>
       <c r="F131" s="23"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" ht="409.6">
       <c r="A132" s="18">
         <v>129</v>
       </c>
@@ -9004,7 +9101,7 @@
       <c r="E132" s="22"/>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" ht="409.6">
       <c r="A133" s="18">
         <v>130</v>
       </c>
@@ -9014,7 +9111,7 @@
       <c r="E133" s="22"/>
       <c r="F133" s="23"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="409.6">
       <c r="A134" s="18">
         <v>131</v>
       </c>
@@ -9024,7 +9121,7 @@
       <c r="E134" s="22"/>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="409.6">
       <c r="A135" s="18">
         <v>132</v>
       </c>
@@ -9034,7 +9131,7 @@
       <c r="E135" s="22"/>
       <c r="F135" s="23"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="409.6">
       <c r="A136" s="18">
         <v>133</v>
       </c>
@@ -9044,7 +9141,7 @@
       <c r="E136" s="22"/>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="409.6">
       <c r="A137" s="18">
         <v>134</v>
       </c>
@@ -9054,7 +9151,7 @@
       <c r="E137" s="22"/>
       <c r="F137" s="23"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="409.6">
       <c r="A138" s="18">
         <v>135</v>
       </c>
@@ -9064,7 +9161,7 @@
       <c r="E138" s="22"/>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="409.6">
       <c r="A139" s="18">
         <v>136</v>
       </c>
@@ -9074,7 +9171,7 @@
       <c r="E139" s="22"/>
       <c r="F139" s="23"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" ht="409.6">
       <c r="A140" s="18">
         <v>137</v>
       </c>
@@ -9084,7 +9181,7 @@
       <c r="E140" s="22"/>
       <c r="F140" s="23"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" ht="409.6">
       <c r="A141" s="18">
         <v>138</v>
       </c>
@@ -9094,7 +9191,7 @@
       <c r="E141" s="22"/>
       <c r="F141" s="23"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="409.6">
       <c r="A142" s="18">
         <v>139</v>
       </c>
@@ -9104,7 +9201,7 @@
       <c r="E142" s="22"/>
       <c r="F142" s="23"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="409.6">
       <c r="A143" s="18">
         <v>140</v>
       </c>
@@ -9114,7 +9211,7 @@
       <c r="E143" s="22"/>
       <c r="F143" s="23"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="409.6">
       <c r="A144" s="18">
         <v>141</v>
       </c>
@@ -9124,7 +9221,7 @@
       <c r="E144" s="22"/>
       <c r="F144" s="23"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" ht="409.6">
       <c r="A145" s="18">
         <v>142</v>
       </c>
@@ -9134,7 +9231,7 @@
       <c r="E145" s="22"/>
       <c r="F145" s="23"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="409.6">
       <c r="A146" s="18">
         <v>143</v>
       </c>
@@ -9144,7 +9241,7 @@
       <c r="E146" s="22"/>
       <c r="F146" s="23"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="409.6">
       <c r="A147" s="18">
         <v>144</v>
       </c>
@@ -9154,7 +9251,7 @@
       <c r="E147" s="22"/>
       <c r="F147" s="23"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="409.6">
       <c r="A148" s="18">
         <v>145</v>
       </c>
@@ -9164,7 +9261,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="23"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" ht="409.6">
       <c r="A149" s="18">
         <v>146</v>
       </c>
@@ -9174,7 +9271,7 @@
       <c r="E149" s="22"/>
       <c r="F149" s="23"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" ht="409.6">
       <c r="A150" s="18">
         <v>147</v>
       </c>
@@ -9184,7 +9281,7 @@
       <c r="E150" s="22"/>
       <c r="F150" s="23"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="409.6">
       <c r="A151" s="18">
         <v>148</v>
       </c>
@@ -9194,7 +9291,7 @@
       <c r="E151" s="22"/>
       <c r="F151" s="23"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" ht="409.6">
       <c r="A152" s="18">
         <v>149</v>
       </c>
@@ -9204,7 +9301,7 @@
       <c r="E152" s="22"/>
       <c r="F152" s="23"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="409.6">
       <c r="A153" s="18">
         <v>150</v>
       </c>
@@ -9214,7 +9311,7 @@
       <c r="E153" s="22"/>
       <c r="F153" s="23"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" ht="409.6">
       <c r="A154" s="18">
         <v>151</v>
       </c>
@@ -9224,7 +9321,7 @@
       <c r="E154" s="22"/>
       <c r="F154" s="23"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="409.6">
       <c r="A155" s="18">
         <v>152</v>
       </c>
@@ -9234,7 +9331,7 @@
       <c r="E155" s="22"/>
       <c r="F155" s="23"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="409.6">
       <c r="A156" s="18">
         <v>153</v>
       </c>
@@ -9244,7 +9341,7 @@
       <c r="E156" s="22"/>
       <c r="F156" s="23"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" ht="409.6">
       <c r="A157" s="18">
         <v>154</v>
       </c>
@@ -9254,7 +9351,7 @@
       <c r="E157" s="22"/>
       <c r="F157" s="23"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" ht="409.6">
       <c r="A158" s="18">
         <v>155</v>
       </c>
@@ -9264,7 +9361,7 @@
       <c r="E158" s="22"/>
       <c r="F158" s="23"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" ht="409.6">
       <c r="A159" s="18">
         <v>156</v>
       </c>
@@ -9274,7 +9371,7 @@
       <c r="E159" s="22"/>
       <c r="F159" s="23"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" ht="409.6">
       <c r="A160" s="18">
         <v>157</v>
       </c>
@@ -9284,7 +9381,7 @@
       <c r="E160" s="22"/>
       <c r="F160" s="23"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="409.6">
       <c r="A161" s="18">
         <v>158</v>
       </c>
@@ -9294,7 +9391,7 @@
       <c r="E161" s="22"/>
       <c r="F161" s="23"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="409.6">
       <c r="A162" s="18">
         <v>159</v>
       </c>
@@ -9304,7 +9401,7 @@
       <c r="E162" s="22"/>
       <c r="F162" s="23"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" ht="409.6">
       <c r="A163" s="18">
         <v>160</v>
       </c>
@@ -9314,7 +9411,7 @@
       <c r="E163" s="22"/>
       <c r="F163" s="23"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="409.6">
       <c r="A164" s="18">
         <v>161</v>
       </c>
@@ -9324,7 +9421,7 @@
       <c r="E164" s="22"/>
       <c r="F164" s="23"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" ht="409.6">
       <c r="A165" s="18">
         <v>162</v>
       </c>
@@ -9334,7 +9431,7 @@
       <c r="E165" s="22"/>
       <c r="F165" s="23"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="409.6">
       <c r="A166" s="18">
         <v>163</v>
       </c>
@@ -9344,7 +9441,7 @@
       <c r="E166" s="22"/>
       <c r="F166" s="23"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="409.6">
       <c r="A167" s="18">
         <v>164</v>
       </c>
@@ -9354,7 +9451,7 @@
       <c r="E167" s="22"/>
       <c r="F167" s="23"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" ht="409.6">
       <c r="A168" s="18">
         <v>165</v>
       </c>
@@ -9364,7 +9461,7 @@
       <c r="E168" s="22"/>
       <c r="F168" s="23"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="409.6">
       <c r="A169" s="18">
         <v>166</v>
       </c>
@@ -9374,7 +9471,7 @@
       <c r="E169" s="22"/>
       <c r="F169" s="23"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="409.6">
       <c r="A170" s="18">
         <v>167</v>
       </c>
@@ -9384,7 +9481,7 @@
       <c r="E170" s="22"/>
       <c r="F170" s="23"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" ht="409.6">
       <c r="A171" s="18">
         <v>168</v>
       </c>
@@ -9394,7 +9491,7 @@
       <c r="E171" s="22"/>
       <c r="F171" s="23"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="409.6">
       <c r="A172" s="18">
         <v>169</v>
       </c>
@@ -9404,7 +9501,7 @@
       <c r="E172" s="22"/>
       <c r="F172" s="23"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" ht="409.6">
       <c r="A173" s="18">
         <v>170</v>
       </c>
@@ -9414,7 +9511,7 @@
       <c r="E173" s="22"/>
       <c r="F173" s="23"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" ht="409.6">
       <c r="A174" s="18">
         <v>171</v>
       </c>
@@ -9424,7 +9521,7 @@
       <c r="E174" s="22"/>
       <c r="F174" s="23"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="409.6">
       <c r="A175" s="18">
         <v>172</v>
       </c>
@@ -9434,7 +9531,7 @@
       <c r="E175" s="22"/>
       <c r="F175" s="23"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" ht="409.6">
       <c r="A176" s="18">
         <v>173</v>
       </c>
@@ -9444,7 +9541,7 @@
       <c r="E176" s="22"/>
       <c r="F176" s="23"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" ht="409.6">
       <c r="A177" s="18">
         <v>174</v>
       </c>
@@ -9454,7 +9551,7 @@
       <c r="E177" s="22"/>
       <c r="F177" s="23"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" ht="409.6">
       <c r="A178" s="18">
         <v>175</v>
       </c>
@@ -9464,7 +9561,7 @@
       <c r="E178" s="22"/>
       <c r="F178" s="23"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" ht="409.6">
       <c r="A179" s="18">
         <v>176</v>
       </c>
@@ -9474,7 +9571,7 @@
       <c r="E179" s="22"/>
       <c r="F179" s="23"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" ht="409.6">
       <c r="A180" s="18">
         <v>177</v>
       </c>
@@ -9484,7 +9581,7 @@
       <c r="E180" s="22"/>
       <c r="F180" s="23"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" ht="409.6">
       <c r="A181" s="18">
         <v>178</v>
       </c>
@@ -9494,7 +9591,7 @@
       <c r="E181" s="22"/>
       <c r="F181" s="23"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" ht="409.6">
       <c r="A182" s="18">
         <v>179</v>
       </c>
@@ -9504,7 +9601,7 @@
       <c r="E182" s="22"/>
       <c r="F182" s="23"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" ht="409.6">
       <c r="A183" s="18">
         <v>180</v>
       </c>
@@ -9514,7 +9611,7 @@
       <c r="E183" s="22"/>
       <c r="F183" s="23"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" ht="409.6">
       <c r="A184" s="18">
         <v>181</v>
       </c>
@@ -9524,7 +9621,7 @@
       <c r="E184" s="22"/>
       <c r="F184" s="23"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" ht="409.6">
       <c r="A185" s="18">
         <v>182</v>
       </c>
@@ -9534,7 +9631,7 @@
       <c r="E185" s="22"/>
       <c r="F185" s="23"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" ht="409.6">
       <c r="A186" s="18">
         <v>183</v>
       </c>
@@ -9544,7 +9641,7 @@
       <c r="E186" s="22"/>
       <c r="F186" s="23"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" ht="409.6">
       <c r="A187" s="18">
         <v>184</v>
       </c>
@@ -9554,7 +9651,7 @@
       <c r="E187" s="22"/>
       <c r="F187" s="23"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" ht="409.6">
       <c r="A188" s="18">
         <v>185</v>
       </c>
@@ -9564,7 +9661,7 @@
       <c r="E188" s="22"/>
       <c r="F188" s="23"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" ht="409.6">
       <c r="A189" s="18">
         <v>186</v>
       </c>
@@ -9574,7 +9671,7 @@
       <c r="E189" s="22"/>
       <c r="F189" s="23"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" ht="409.6">
       <c r="A190" s="18">
         <v>187</v>
       </c>
@@ -9584,7 +9681,7 @@
       <c r="E190" s="22"/>
       <c r="F190" s="23"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" ht="409.6">
       <c r="A191" s="18">
         <v>188</v>
       </c>
@@ -9594,7 +9691,7 @@
       <c r="E191" s="22"/>
       <c r="F191" s="23"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" ht="409.6">
       <c r="A192" s="18">
         <v>189</v>
       </c>
@@ -9604,7 +9701,7 @@
       <c r="E192" s="22"/>
       <c r="F192" s="23"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" ht="409.6">
       <c r="A193" s="18">
         <v>190</v>
       </c>
@@ -9614,7 +9711,7 @@
       <c r="E193" s="22"/>
       <c r="F193" s="23"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" ht="409.6">
       <c r="A194" s="18">
         <v>191</v>
       </c>
@@ -9624,7 +9721,7 @@
       <c r="E194" s="22"/>
       <c r="F194" s="23"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" ht="409.6">
       <c r="A195" s="18">
         <v>192</v>
       </c>
@@ -9634,7 +9731,7 @@
       <c r="E195" s="22"/>
       <c r="F195" s="23"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="409.6">
       <c r="A196" s="18">
         <v>193</v>
       </c>
@@ -9644,7 +9741,7 @@
       <c r="E196" s="22"/>
       <c r="F196" s="23"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="409.6">
       <c r="A197" s="18">
         <v>194</v>
       </c>
@@ -9654,7 +9751,7 @@
       <c r="E197" s="22"/>
       <c r="F197" s="23"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" ht="409.6">
       <c r="A198" s="18">
         <v>195</v>
       </c>
@@ -9664,7 +9761,7 @@
       <c r="E198" s="22"/>
       <c r="F198" s="23"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" ht="409.6">
       <c r="A199" s="18">
         <v>196</v>
       </c>
@@ -9674,7 +9771,7 @@
       <c r="E199" s="22"/>
       <c r="F199" s="23"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" ht="409.6">
       <c r="A200" s="18">
         <v>197</v>
       </c>
@@ -9684,7 +9781,7 @@
       <c r="E200" s="22"/>
       <c r="F200" s="23"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" ht="409.6">
       <c r="A201" s="18">
         <v>198</v>
       </c>
@@ -9694,7 +9791,7 @@
       <c r="E201" s="22"/>
       <c r="F201" s="23"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" ht="409.6">
       <c r="A202" s="18">
         <v>199</v>
       </c>
@@ -9704,7 +9801,7 @@
       <c r="E202" s="22"/>
       <c r="F202" s="23"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" ht="409.6">
       <c r="A203" s="18">
         <v>200</v>
       </c>
@@ -9714,7 +9811,7 @@
       <c r="E203" s="22"/>
       <c r="F203" s="23"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" ht="409.6">
       <c r="A204" s="18">
         <v>201</v>
       </c>
@@ -9724,7 +9821,7 @@
       <c r="E204" s="22"/>
       <c r="F204" s="23"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" ht="409.6">
       <c r="A205" s="18">
         <v>202</v>
       </c>
@@ -9734,7 +9831,7 @@
       <c r="E205" s="22"/>
       <c r="F205" s="23"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" ht="409.6">
       <c r="A206" s="18">
         <v>203</v>
       </c>
@@ -9744,7 +9841,7 @@
       <c r="E206" s="22"/>
       <c r="F206" s="23"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" ht="409.6">
       <c r="A207" s="18">
         <v>204</v>
       </c>
@@ -9754,7 +9851,7 @@
       <c r="E207" s="22"/>
       <c r="F207" s="23"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" ht="409.6">
       <c r="A208" s="18">
         <v>205</v>
       </c>
@@ -9764,7 +9861,7 @@
       <c r="E208" s="22"/>
       <c r="F208" s="23"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" ht="409.6">
       <c r="A209" s="18">
         <v>206</v>
       </c>
@@ -9774,7 +9871,7 @@
       <c r="E209" s="22"/>
       <c r="F209" s="23"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" ht="409.6">
       <c r="A210" s="18">
         <v>207</v>
       </c>
@@ -9784,7 +9881,7 @@
       <c r="E210" s="22"/>
       <c r="F210" s="23"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" ht="409.6">
       <c r="A211" s="18">
         <v>208</v>
       </c>
@@ -9794,7 +9891,7 @@
       <c r="E211" s="22"/>
       <c r="F211" s="23"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" ht="409.6">
       <c r="A212" s="18">
         <v>209</v>
       </c>
@@ -9804,7 +9901,7 @@
       <c r="E212" s="22"/>
       <c r="F212" s="23"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" ht="409.6">
       <c r="A213" s="18">
         <v>210</v>
       </c>
@@ -9814,7 +9911,7 @@
       <c r="E213" s="22"/>
       <c r="F213" s="23"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" ht="409.6">
       <c r="A214" s="18">
         <v>211</v>
       </c>
@@ -9824,7 +9921,7 @@
       <c r="E214" s="22"/>
       <c r="F214" s="23"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" ht="409.6">
       <c r="A215" s="18">
         <v>212</v>
       </c>
@@ -9834,7 +9931,7 @@
       <c r="E215" s="22"/>
       <c r="F215" s="23"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" ht="409.6">
       <c r="A216" s="18">
         <v>213</v>
       </c>
@@ -9844,7 +9941,7 @@
       <c r="E216" s="22"/>
       <c r="F216" s="23"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" ht="409.6">
       <c r="A217" s="18">
         <v>214</v>
       </c>
@@ -9854,7 +9951,7 @@
       <c r="E217" s="22"/>
       <c r="F217" s="23"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" ht="409.6">
       <c r="A218" s="18">
         <v>215</v>
       </c>
@@ -9864,7 +9961,7 @@
       <c r="E218" s="22"/>
       <c r="F218" s="23"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" ht="409.6">
       <c r="A219" s="18">
         <v>216</v>
       </c>
@@ -9874,7 +9971,7 @@
       <c r="E219" s="22"/>
       <c r="F219" s="23"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" ht="409.6">
       <c r="A220" s="18">
         <v>217</v>
       </c>
@@ -9884,7 +9981,7 @@
       <c r="E220" s="22"/>
       <c r="F220" s="23"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" ht="409.6">
       <c r="A221" s="18">
         <v>218</v>
       </c>
@@ -9894,7 +9991,7 @@
       <c r="E221" s="22"/>
       <c r="F221" s="23"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" ht="409.6">
       <c r="A222" s="18">
         <v>219</v>
       </c>
@@ -9904,7 +10001,7 @@
       <c r="E222" s="22"/>
       <c r="F222" s="23"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" ht="409.6">
       <c r="A223" s="18">
         <v>220</v>
       </c>
@@ -9914,7 +10011,7 @@
       <c r="E223" s="22"/>
       <c r="F223" s="23"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" ht="409.6">
       <c r="A224" s="18">
         <v>221</v>
       </c>
@@ -9924,7 +10021,7 @@
       <c r="E224" s="22"/>
       <c r="F224" s="23"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" ht="409.6">
       <c r="A225" s="18">
         <v>222</v>
       </c>
@@ -9934,7 +10031,7 @@
       <c r="E225" s="22"/>
       <c r="F225" s="23"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" ht="409.6">
       <c r="A226" s="18">
         <v>223</v>
       </c>
@@ -9944,7 +10041,7 @@
       <c r="E226" s="22"/>
       <c r="F226" s="23"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" ht="409.6">
       <c r="A227" s="18">
         <v>224</v>
       </c>
@@ -9954,7 +10051,7 @@
       <c r="E227" s="22"/>
       <c r="F227" s="23"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" ht="409.6">
       <c r="A228" s="18">
         <v>225</v>
       </c>
@@ -9964,7 +10061,7 @@
       <c r="E228" s="22"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" ht="409.6">
       <c r="A229" s="18">
         <v>226</v>
       </c>
@@ -9974,7 +10071,7 @@
       <c r="E229" s="22"/>
       <c r="F229" s="23"/>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" ht="409.6">
       <c r="A230" s="18">
         <v>227</v>
       </c>
@@ -9984,7 +10081,7 @@
       <c r="E230" s="22"/>
       <c r="F230" s="23"/>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" ht="409.6">
       <c r="A231" s="18">
         <v>228</v>
       </c>
@@ -9994,7 +10091,7 @@
       <c r="E231" s="22"/>
       <c r="F231" s="23"/>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" ht="409.6">
       <c r="A232" s="18">
         <v>229</v>
       </c>
@@ -10004,7 +10101,7 @@
       <c r="E232" s="22"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" ht="409.6">
       <c r="A233" s="18">
         <v>230</v>
       </c>
@@ -10014,7 +10111,7 @@
       <c r="E233" s="22"/>
       <c r="F233" s="23"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" ht="409.6">
       <c r="A234" s="18">
         <v>231</v>
       </c>
@@ -10024,7 +10121,7 @@
       <c r="E234" s="22"/>
       <c r="F234" s="23"/>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" ht="409.6">
       <c r="A235" s="18">
         <v>232</v>
       </c>
@@ -10034,7 +10131,7 @@
       <c r="E235" s="22"/>
       <c r="F235" s="23"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" ht="409.6">
       <c r="A236" s="18">
         <v>233</v>
       </c>
@@ -10044,7 +10141,7 @@
       <c r="E236" s="22"/>
       <c r="F236" s="23"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" ht="409.6">
       <c r="A237" s="18">
         <v>234</v>
       </c>
@@ -10054,7 +10151,7 @@
       <c r="E237" s="22"/>
       <c r="F237" s="23"/>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" ht="409.6">
       <c r="A238" s="18">
         <v>235</v>
       </c>
@@ -10064,7 +10161,7 @@
       <c r="E238" s="22"/>
       <c r="F238" s="23"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" ht="409.6">
       <c r="A239" s="18">
         <v>236</v>
       </c>
@@ -10074,7 +10171,7 @@
       <c r="E239" s="22"/>
       <c r="F239" s="23"/>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" ht="409.6">
       <c r="A240" s="18">
         <v>237</v>
       </c>
@@ -10084,7 +10181,7 @@
       <c r="E240" s="22"/>
       <c r="F240" s="23"/>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" ht="409.6">
       <c r="A241" s="18">
         <v>238</v>
       </c>
@@ -10094,7 +10191,7 @@
       <c r="E241" s="22"/>
       <c r="F241" s="23"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" ht="409.6">
       <c r="A242" s="18">
         <v>239</v>
       </c>
@@ -10104,7 +10201,7 @@
       <c r="E242" s="22"/>
       <c r="F242" s="23"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" ht="409.6">
       <c r="A243" s="18">
         <v>240</v>
       </c>
@@ -10114,7 +10211,7 @@
       <c r="E243" s="22"/>
       <c r="F243" s="23"/>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" ht="409.6">
       <c r="A244" s="18">
         <v>241</v>
       </c>
@@ -10124,7 +10221,7 @@
       <c r="E244" s="22"/>
       <c r="F244" s="23"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" ht="409.6">
       <c r="A245" s="18">
         <v>242</v>
       </c>
@@ -10134,7 +10231,7 @@
       <c r="E245" s="22"/>
       <c r="F245" s="23"/>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" ht="409.6">
       <c r="A246" s="18">
         <v>243</v>
       </c>
@@ -10144,7 +10241,7 @@
       <c r="E246" s="22"/>
       <c r="F246" s="23"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" ht="409.6">
       <c r="A247" s="18">
         <v>244</v>
       </c>
@@ -10154,7 +10251,7 @@
       <c r="E247" s="22"/>
       <c r="F247" s="23"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" ht="409.6">
       <c r="A248" s="18">
         <v>245</v>
       </c>
@@ -10164,7 +10261,7 @@
       <c r="E248" s="22"/>
       <c r="F248" s="23"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" ht="409.6">
       <c r="A249" s="18">
         <v>246</v>
       </c>
@@ -10174,7 +10271,7 @@
       <c r="E249" s="22"/>
       <c r="F249" s="23"/>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" ht="409.6">
       <c r="A250" s="18">
         <v>247</v>
       </c>
@@ -10184,7 +10281,7 @@
       <c r="E250" s="22"/>
       <c r="F250" s="23"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" ht="409.6">
       <c r="A251" s="18">
         <v>248</v>
       </c>
@@ -10194,7 +10291,7 @@
       <c r="E251" s="22"/>
       <c r="F251" s="23"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" ht="409.6">
       <c r="A252" s="18">
         <v>249</v>
       </c>
@@ -10204,7 +10301,7 @@
       <c r="E252" s="22"/>
       <c r="F252" s="23"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" ht="409.6">
       <c r="A253" s="18">
         <v>250</v>
       </c>
@@ -10214,7 +10311,7 @@
       <c r="E253" s="22"/>
       <c r="F253" s="23"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" ht="409.6">
       <c r="A254" s="18">
         <v>251</v>
       </c>
@@ -10224,7 +10321,7 @@
       <c r="E254" s="22"/>
       <c r="F254" s="23"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" ht="409.6">
       <c r="A255" s="18">
         <v>252</v>
       </c>
@@ -10234,7 +10331,7 @@
       <c r="E255" s="22"/>
       <c r="F255" s="23"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" ht="409.6">
       <c r="A256" s="18">
         <v>253</v>
       </c>
@@ -10244,7 +10341,7 @@
       <c r="E256" s="22"/>
       <c r="F256" s="23"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" ht="409.6">
       <c r="A257" s="18">
         <v>254</v>
       </c>
@@ -10254,7 +10351,7 @@
       <c r="E257" s="22"/>
       <c r="F257" s="23"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" ht="409.6">
       <c r="A258" s="18">
         <v>255</v>
       </c>
@@ -10264,7 +10361,7 @@
       <c r="E258" s="22"/>
       <c r="F258" s="23"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" ht="409.6">
       <c r="A259" s="18">
         <v>256</v>
       </c>
@@ -10274,7 +10371,7 @@
       <c r="E259" s="22"/>
       <c r="F259" s="23"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" ht="409.6">
       <c r="A260" s="18">
         <v>257</v>
       </c>
@@ -10284,7 +10381,7 @@
       <c r="E260" s="22"/>
       <c r="F260" s="23"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" ht="409.6">
       <c r="A261" s="18">
         <v>258</v>
       </c>
@@ -10294,7 +10391,7 @@
       <c r="E261" s="22"/>
       <c r="F261" s="23"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" ht="409.6">
       <c r="A262" s="18">
         <v>259</v>
       </c>
@@ -10304,7 +10401,7 @@
       <c r="E262" s="22"/>
       <c r="F262" s="23"/>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" ht="409.6">
       <c r="A263" s="18">
         <v>260</v>
       </c>
@@ -10314,7 +10411,7 @@
       <c r="E263" s="22"/>
       <c r="F263" s="23"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" ht="409.6">
       <c r="A264" s="18">
         <v>261</v>
       </c>
@@ -10324,7 +10421,7 @@
       <c r="E264" s="22"/>
       <c r="F264" s="23"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" ht="409.6">
       <c r="A265" s="18">
         <v>262</v>
       </c>
@@ -10334,7 +10431,7 @@
       <c r="E265" s="22"/>
       <c r="F265" s="23"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" ht="409.6">
       <c r="A266" s="18">
         <v>263</v>
       </c>
@@ -10344,7 +10441,7 @@
       <c r="E266" s="22"/>
       <c r="F266" s="23"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" ht="409.6">
       <c r="A267" s="18">
         <v>264</v>
       </c>
@@ -10354,7 +10451,7 @@
       <c r="E267" s="22"/>
       <c r="F267" s="23"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" ht="409.6">
       <c r="A268" s="18">
         <v>265</v>
       </c>
@@ -10364,7 +10461,7 @@
       <c r="E268" s="22"/>
       <c r="F268" s="23"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" ht="409.6">
       <c r="A269" s="18">
         <v>266</v>
       </c>
@@ -10374,7 +10471,7 @@
       <c r="E269" s="22"/>
       <c r="F269" s="23"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" ht="409.6">
       <c r="A270" s="18">
         <v>267</v>
       </c>
@@ -10384,7 +10481,7 @@
       <c r="E270" s="22"/>
       <c r="F270" s="23"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" ht="409.6">
       <c r="A271" s="18">
         <v>268</v>
       </c>
@@ -10394,7 +10491,7 @@
       <c r="E271" s="22"/>
       <c r="F271" s="23"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" ht="409.6">
       <c r="A272" s="18">
         <v>269</v>
       </c>
@@ -10404,7 +10501,7 @@
       <c r="E272" s="22"/>
       <c r="F272" s="23"/>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" ht="409.6">
       <c r="A273" s="18">
         <v>270</v>
       </c>
@@ -10414,7 +10511,7 @@
       <c r="E273" s="22"/>
       <c r="F273" s="23"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" ht="409.6">
       <c r="A274" s="18">
         <v>271</v>
       </c>
@@ -10424,7 +10521,7 @@
       <c r="E274" s="22"/>
       <c r="F274" s="23"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" ht="409.6">
       <c r="A275" s="18">
         <v>272</v>
       </c>
@@ -10434,7 +10531,7 @@
       <c r="E275" s="22"/>
       <c r="F275" s="23"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" ht="409.6">
       <c r="A276" s="18">
         <v>273</v>
       </c>
@@ -10444,7 +10541,7 @@
       <c r="E276" s="22"/>
       <c r="F276" s="23"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" ht="409.6">
       <c r="A277" s="18">
         <v>274</v>
       </c>
@@ -10454,7 +10551,7 @@
       <c r="E277" s="22"/>
       <c r="F277" s="23"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" ht="409.6">
       <c r="A278" s="18">
         <v>275</v>
       </c>
@@ -10464,7 +10561,7 @@
       <c r="E278" s="22"/>
       <c r="F278" s="23"/>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" ht="409.6">
       <c r="A279" s="18">
         <v>276</v>
       </c>
@@ -10474,7 +10571,7 @@
       <c r="E279" s="22"/>
       <c r="F279" s="23"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" ht="409.6">
       <c r="A280" s="18">
         <v>277</v>
       </c>
@@ -10484,7 +10581,7 @@
       <c r="E280" s="22"/>
       <c r="F280" s="23"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" ht="409.6">
       <c r="A281" s="18">
         <v>278</v>
       </c>
@@ -10494,7 +10591,7 @@
       <c r="E281" s="22"/>
       <c r="F281" s="23"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" ht="409.6">
       <c r="A282" s="18">
         <v>279</v>
       </c>
@@ -10504,7 +10601,7 @@
       <c r="E282" s="22"/>
       <c r="F282" s="23"/>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" ht="409.6">
       <c r="A283" s="18">
         <v>280</v>
       </c>
@@ -10514,7 +10611,7 @@
       <c r="E283" s="22"/>
       <c r="F283" s="23"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" ht="409.6">
       <c r="A284" s="18">
         <v>281</v>
       </c>
@@ -10524,7 +10621,7 @@
       <c r="E284" s="22"/>
       <c r="F284" s="23"/>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" ht="409.6">
       <c r="A285" s="18">
         <v>282</v>
       </c>
@@ -10534,7 +10631,7 @@
       <c r="E285" s="22"/>
       <c r="F285" s="23"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" ht="409.6">
       <c r="A286" s="18">
         <v>283</v>
       </c>
@@ -10544,7 +10641,7 @@
       <c r="E286" s="22"/>
       <c r="F286" s="23"/>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" ht="409.6">
       <c r="A287" s="18">
         <v>284</v>
       </c>
@@ -10554,7 +10651,7 @@
       <c r="E287" s="22"/>
       <c r="F287" s="23"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" ht="409.6">
       <c r="A288" s="18">
         <v>285</v>
       </c>
@@ -10564,7 +10661,7 @@
       <c r="E288" s="22"/>
       <c r="F288" s="23"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" ht="409.6">
       <c r="A289" s="18">
         <v>286</v>
       </c>
@@ -10574,7 +10671,7 @@
       <c r="E289" s="22"/>
       <c r="F289" s="23"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" ht="409.6">
       <c r="A290" s="18">
         <v>287</v>
       </c>
@@ -10584,7 +10681,7 @@
       <c r="E290" s="22"/>
       <c r="F290" s="23"/>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" ht="409.6">
       <c r="A291" s="18">
         <v>288</v>
       </c>
@@ -10594,7 +10691,7 @@
       <c r="E291" s="22"/>
       <c r="F291" s="23"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" ht="409.6">
       <c r="A292" s="18">
         <v>289</v>
       </c>
@@ -10604,7 +10701,7 @@
       <c r="E292" s="22"/>
       <c r="F292" s="23"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" ht="409.6">
       <c r="A293" s="18">
         <v>290</v>
       </c>
@@ -10614,7 +10711,7 @@
       <c r="E293" s="22"/>
       <c r="F293" s="23"/>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" ht="409.6">
       <c r="A294" s="18">
         <v>291</v>
       </c>
@@ -10624,7 +10721,7 @@
       <c r="E294" s="22"/>
       <c r="F294" s="23"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" ht="409.6">
       <c r="A295" s="18">
         <v>292</v>
       </c>
@@ -10634,7 +10731,7 @@
       <c r="E295" s="22"/>
       <c r="F295" s="23"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" ht="409.6">
       <c r="A296" s="18">
         <v>293</v>
       </c>
@@ -10644,7 +10741,7 @@
       <c r="E296" s="22"/>
       <c r="F296" s="23"/>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" ht="409.6">
       <c r="A297" s="18">
         <v>294</v>
       </c>
@@ -10654,7 +10751,7 @@
       <c r="E297" s="22"/>
       <c r="F297" s="23"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" ht="409.6">
       <c r="A298" s="18">
         <v>295</v>
       </c>
@@ -10664,7 +10761,7 @@
       <c r="E298" s="22"/>
       <c r="F298" s="23"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" ht="409.6">
       <c r="A299" s="18">
         <v>296</v>
       </c>
@@ -10674,7 +10771,7 @@
       <c r="E299" s="22"/>
       <c r="F299" s="23"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" ht="409.6">
       <c r="A300" s="18">
         <v>297</v>
       </c>
@@ -10684,7 +10781,7 @@
       <c r="E300" s="22"/>
       <c r="F300" s="23"/>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" ht="409.6">
       <c r="A301" s="18">
         <v>298</v>
       </c>
@@ -10694,7 +10791,7 @@
       <c r="E301" s="22"/>
       <c r="F301" s="23"/>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" ht="409.6">
       <c r="A302" s="18">
         <v>299</v>
       </c>
@@ -10704,7 +10801,7 @@
       <c r="E302" s="22"/>
       <c r="F302" s="23"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" ht="409.6">
       <c r="A303" s="18">
         <v>300</v>
       </c>
@@ -10714,7 +10811,7 @@
       <c r="E303" s="22"/>
       <c r="F303" s="23"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" ht="409.6">
       <c r="A304" s="18">
         <v>301</v>
       </c>
@@ -10724,7 +10821,7 @@
       <c r="E304" s="22"/>
       <c r="F304" s="23"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" ht="409.6">
       <c r="A305" s="18">
         <v>302</v>
       </c>
@@ -10734,7 +10831,7 @@
       <c r="E305" s="22"/>
       <c r="F305" s="23"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" ht="409.6">
       <c r="A306" s="18">
         <v>303</v>
       </c>
@@ -10744,7 +10841,7 @@
       <c r="E306" s="22"/>
       <c r="F306" s="23"/>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" ht="409.6">
       <c r="A307" s="18">
         <v>304</v>
       </c>
@@ -10754,7 +10851,7 @@
       <c r="E307" s="22"/>
       <c r="F307" s="23"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" ht="409.6">
       <c r="A308" s="18">
         <v>305</v>
       </c>
@@ -10764,7 +10861,7 @@
       <c r="E308" s="22"/>
       <c r="F308" s="23"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" ht="409.6">
       <c r="A309" s="18">
         <v>306</v>
       </c>
@@ -10774,7 +10871,7 @@
       <c r="E309" s="22"/>
       <c r="F309" s="23"/>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" ht="409.6">
       <c r="A310" s="18">
         <v>307</v>
       </c>
@@ -10784,7 +10881,7 @@
       <c r="E310" s="22"/>
       <c r="F310" s="23"/>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" ht="409.6">
       <c r="A311" s="18">
         <v>308</v>
       </c>
@@ -10794,7 +10891,7 @@
       <c r="E311" s="22"/>
       <c r="F311" s="23"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" ht="409.6">
       <c r="A312" s="18">
         <v>309</v>
       </c>
@@ -10804,7 +10901,7 @@
       <c r="E312" s="22"/>
       <c r="F312" s="23"/>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" ht="409.6">
       <c r="A313" s="18">
         <v>310</v>
       </c>
@@ -10814,7 +10911,7 @@
       <c r="E313" s="22"/>
       <c r="F313" s="23"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" ht="409.6">
       <c r="A314" s="18">
         <v>311</v>
       </c>
@@ -10824,7 +10921,7 @@
       <c r="E314" s="22"/>
       <c r="F314" s="23"/>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" ht="409.6">
       <c r="A315" s="18">
         <v>312</v>
       </c>
@@ -10834,7 +10931,7 @@
       <c r="E315" s="22"/>
       <c r="F315" s="23"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" ht="409.6">
       <c r="A316" s="18">
         <v>313</v>
       </c>
@@ -10844,7 +10941,7 @@
       <c r="E316" s="22"/>
       <c r="F316" s="23"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" ht="409.6">
       <c r="A317" s="18">
         <v>314</v>
       </c>
@@ -10854,7 +10951,7 @@
       <c r="E317" s="22"/>
       <c r="F317" s="23"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" ht="409.6">
       <c r="A318" s="18">
         <v>315</v>
       </c>
@@ -10864,7 +10961,7 @@
       <c r="E318" s="22"/>
       <c r="F318" s="23"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" ht="409.6">
       <c r="A319" s="18">
         <v>316</v>
       </c>
@@ -10874,7 +10971,7 @@
       <c r="E319" s="22"/>
       <c r="F319" s="23"/>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" ht="409.6">
       <c r="A320" s="18">
         <v>317</v>
       </c>
@@ -10884,7 +10981,7 @@
       <c r="E320" s="22"/>
       <c r="F320" s="23"/>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" ht="409.6">
       <c r="A321" s="18">
         <v>318</v>
       </c>
@@ -10894,7 +10991,7 @@
       <c r="E321" s="22"/>
       <c r="F321" s="23"/>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" ht="409.6">
       <c r="A322" s="18">
         <v>319</v>
       </c>
@@ -10904,7 +11001,7 @@
       <c r="E322" s="22"/>
       <c r="F322" s="23"/>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" ht="409.6">
       <c r="A323" s="18">
         <v>320</v>
       </c>
@@ -10914,7 +11011,7 @@
       <c r="E323" s="22"/>
       <c r="F323" s="23"/>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" ht="409.6">
       <c r="A324" s="18">
         <v>321</v>
       </c>
@@ -10924,7 +11021,7 @@
       <c r="E324" s="22"/>
       <c r="F324" s="23"/>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" ht="409.6">
       <c r="A325" s="18">
         <v>322</v>
       </c>
@@ -10934,7 +11031,7 @@
       <c r="E325" s="22"/>
       <c r="F325" s="23"/>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" ht="409.6">
       <c r="A326" s="18">
         <v>323</v>
       </c>
@@ -10944,7 +11041,7 @@
       <c r="E326" s="22"/>
       <c r="F326" s="23"/>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" ht="409.6">
       <c r="A327" s="18">
         <v>324</v>
       </c>
@@ -10954,7 +11051,7 @@
       <c r="E327" s="22"/>
       <c r="F327" s="23"/>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" ht="409.6">
       <c r="A328" s="18">
         <v>325</v>
       </c>
@@ -10964,7 +11061,7 @@
       <c r="E328" s="22"/>
       <c r="F328" s="23"/>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" ht="409.6">
       <c r="A329" s="18">
         <v>326</v>
       </c>
@@ -10974,7 +11071,7 @@
       <c r="E329" s="22"/>
       <c r="F329" s="23"/>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" ht="409.6">
       <c r="A330" s="18">
         <v>327</v>
       </c>
@@ -10984,7 +11081,7 @@
       <c r="E330" s="22"/>
       <c r="F330" s="23"/>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" ht="409.6">
       <c r="A331" s="18">
         <v>328</v>
       </c>
@@ -10994,7 +11091,7 @@
       <c r="E331" s="22"/>
       <c r="F331" s="23"/>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" ht="409.6">
       <c r="A332" s="18">
         <v>329</v>
       </c>
@@ -11004,7 +11101,7 @@
       <c r="E332" s="22"/>
       <c r="F332" s="23"/>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" ht="409.6">
       <c r="A333" s="18">
         <v>330</v>
       </c>
@@ -11014,7 +11111,7 @@
       <c r="E333" s="22"/>
       <c r="F333" s="23"/>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" ht="409.6">
       <c r="A334" s="18">
         <v>331</v>
       </c>
@@ -11024,7 +11121,7 @@
       <c r="E334" s="22"/>
       <c r="F334" s="23"/>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" ht="409.6">
       <c r="A335" s="18">
         <v>332</v>
       </c>
@@ -11034,7 +11131,7 @@
       <c r="E335" s="22"/>
       <c r="F335" s="23"/>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" ht="409.6">
       <c r="A336" s="18">
         <v>333</v>
       </c>
@@ -11044,7 +11141,7 @@
       <c r="E336" s="22"/>
       <c r="F336" s="23"/>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" ht="409.6">
       <c r="A337" s="18">
         <v>334</v>
       </c>
@@ -11054,7 +11151,7 @@
       <c r="E337" s="22"/>
       <c r="F337" s="23"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" ht="409.6">
       <c r="A338" s="18">
         <v>335</v>
       </c>
@@ -11064,7 +11161,7 @@
       <c r="E338" s="22"/>
       <c r="F338" s="23"/>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" ht="409.6">
       <c r="A339" s="18">
         <v>336</v>
       </c>
@@ -11074,7 +11171,7 @@
       <c r="E339" s="22"/>
       <c r="F339" s="23"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" ht="409.6">
       <c r="A340" s="18">
         <v>337</v>
       </c>
@@ -11084,7 +11181,7 @@
       <c r="E340" s="22"/>
       <c r="F340" s="23"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" ht="409.6">
       <c r="A341" s="18">
         <v>338</v>
       </c>
@@ -11094,7 +11191,7 @@
       <c r="E341" s="22"/>
       <c r="F341" s="23"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" ht="409.6">
       <c r="A342" s="18">
         <v>339</v>
       </c>
@@ -11104,7 +11201,7 @@
       <c r="E342" s="22"/>
       <c r="F342" s="23"/>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" ht="409.6">
       <c r="A343" s="18">
         <v>340</v>
       </c>
@@ -11114,7 +11211,7 @@
       <c r="E343" s="22"/>
       <c r="F343" s="23"/>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" ht="409.6">
       <c r="A344" s="18">
         <v>341</v>
       </c>
@@ -11124,7 +11221,7 @@
       <c r="E344" s="22"/>
       <c r="F344" s="23"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" ht="409.6">
       <c r="A345" s="18">
         <v>342</v>
       </c>
@@ -11134,7 +11231,7 @@
       <c r="E345" s="22"/>
       <c r="F345" s="23"/>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" ht="409.6">
       <c r="A346" s="18">
         <v>343</v>
       </c>
@@ -11144,7 +11241,7 @@
       <c r="E346" s="22"/>
       <c r="F346" s="23"/>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" ht="409.6">
       <c r="A347" s="18">
         <v>344</v>
       </c>
@@ -11154,7 +11251,7 @@
       <c r="E347" s="22"/>
       <c r="F347" s="23"/>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" ht="409.6">
       <c r="A348" s="18">
         <v>345</v>
       </c>
@@ -11164,7 +11261,7 @@
       <c r="E348" s="22"/>
       <c r="F348" s="23"/>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" ht="409.6">
       <c r="A349" s="18">
         <v>346</v>
       </c>
@@ -11174,7 +11271,7 @@
       <c r="E349" s="22"/>
       <c r="F349" s="23"/>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" ht="409.6">
       <c r="A350" s="18">
         <v>347</v>
       </c>
@@ -11184,7 +11281,7 @@
       <c r="E350" s="22"/>
       <c r="F350" s="23"/>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" ht="409.6">
       <c r="A351" s="18">
         <v>348</v>
       </c>
@@ -11194,7 +11291,7 @@
       <c r="E351" s="22"/>
       <c r="F351" s="23"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" ht="409.6">
       <c r="A352" s="18">
         <v>349</v>
       </c>
@@ -11204,7 +11301,7 @@
       <c r="E352" s="22"/>
       <c r="F352" s="23"/>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" ht="409.6">
       <c r="A353" s="18">
         <v>350</v>
       </c>
@@ -11214,7 +11311,7 @@
       <c r="E353" s="22"/>
       <c r="F353" s="23"/>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" ht="409.6">
       <c r="A354" s="18">
         <v>351</v>
       </c>
@@ -11224,7 +11321,7 @@
       <c r="E354" s="22"/>
       <c r="F354" s="23"/>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" ht="409.6">
       <c r="A355" s="18">
         <v>352</v>
       </c>
@@ -11234,7 +11331,7 @@
       <c r="E355" s="22"/>
       <c r="F355" s="23"/>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" ht="409.6">
       <c r="A356" s="18">
         <v>353</v>
       </c>
@@ -11244,7 +11341,7 @@
       <c r="E356" s="22"/>
       <c r="F356" s="23"/>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" ht="409.6">
       <c r="A357" s="18">
         <v>354</v>
       </c>
@@ -11254,7 +11351,7 @@
       <c r="E357" s="22"/>
       <c r="F357" s="23"/>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" ht="409.6">
       <c r="A358" s="18">
         <v>355</v>
       </c>
@@ -11264,7 +11361,7 @@
       <c r="E358" s="22"/>
       <c r="F358" s="23"/>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" ht="409.6">
       <c r="A359" s="18">
         <v>356</v>
       </c>
@@ -11274,7 +11371,7 @@
       <c r="E359" s="22"/>
       <c r="F359" s="23"/>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" ht="409.6">
       <c r="A360" s="18">
         <v>357</v>
       </c>
@@ -11284,7 +11381,7 @@
       <c r="E360" s="22"/>
       <c r="F360" s="23"/>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" ht="409.6">
       <c r="A361" s="18">
         <v>358</v>
       </c>
@@ -11294,7 +11391,7 @@
       <c r="E361" s="22"/>
       <c r="F361" s="23"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" ht="409.6">
       <c r="A362" s="18">
         <v>359</v>
       </c>
@@ -11304,7 +11401,7 @@
       <c r="E362" s="22"/>
       <c r="F362" s="23"/>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" ht="409.6">
       <c r="A363" s="18">
         <v>360</v>
       </c>
@@ -11314,7 +11411,7 @@
       <c r="E363" s="22"/>
       <c r="F363" s="23"/>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" ht="409.6">
       <c r="A364" s="18">
         <v>361</v>
       </c>
@@ -11324,7 +11421,7 @@
       <c r="E364" s="22"/>
       <c r="F364" s="23"/>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" ht="409.6">
       <c r="A365" s="18">
         <v>362</v>
       </c>
@@ -11334,7 +11431,7 @@
       <c r="E365" s="22"/>
       <c r="F365" s="23"/>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" ht="409.6">
       <c r="A366" s="18">
         <v>363</v>
       </c>
@@ -11344,7 +11441,7 @@
       <c r="E366" s="22"/>
       <c r="F366" s="23"/>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" ht="409.6">
       <c r="A367" s="18">
         <v>364</v>
       </c>
@@ -11354,7 +11451,7 @@
       <c r="E367" s="22"/>
       <c r="F367" s="23"/>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" ht="409.6">
       <c r="A368" s="18">
         <v>365</v>
       </c>
@@ -11364,7 +11461,7 @@
       <c r="E368" s="22"/>
       <c r="F368" s="23"/>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" ht="409.6">
       <c r="A369" s="18">
         <v>366</v>
       </c>
@@ -11374,7 +11471,7 @@
       <c r="E369" s="22"/>
       <c r="F369" s="23"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" ht="409.6">
       <c r="A370" s="18">
         <v>367</v>
       </c>
@@ -11384,7 +11481,7 @@
       <c r="E370" s="22"/>
       <c r="F370" s="23"/>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" ht="409.6">
       <c r="A371" s="18">
         <v>368</v>
       </c>
@@ -11394,7 +11491,7 @@
       <c r="E371" s="22"/>
       <c r="F371" s="23"/>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" ht="409.6">
       <c r="A372" s="18">
         <v>369</v>
       </c>
@@ -11404,7 +11501,7 @@
       <c r="E372" s="22"/>
       <c r="F372" s="23"/>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" ht="409.6">
       <c r="A373" s="18">
         <v>370</v>
       </c>
@@ -11414,7 +11511,7 @@
       <c r="E373" s="22"/>
       <c r="F373" s="23"/>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" ht="409.6">
       <c r="A374" s="18">
         <v>371</v>
       </c>
@@ -11424,7 +11521,7 @@
       <c r="E374" s="22"/>
       <c r="F374" s="23"/>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" ht="409.6">
       <c r="A375" s="18">
         <v>372</v>
       </c>
@@ -11434,7 +11531,7 @@
       <c r="E375" s="22"/>
       <c r="F375" s="23"/>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" ht="409.6">
       <c r="A376" s="18">
         <v>373</v>
       </c>
@@ -11444,7 +11541,7 @@
       <c r="E376" s="22"/>
       <c r="F376" s="23"/>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" ht="409.6">
       <c r="A377" s="18">
         <v>374</v>
       </c>
@@ -11454,7 +11551,7 @@
       <c r="E377" s="22"/>
       <c r="F377" s="23"/>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" ht="409.6">
       <c r="A378" s="18">
         <v>375</v>
       </c>
@@ -11464,7 +11561,7 @@
       <c r="E378" s="22"/>
       <c r="F378" s="23"/>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" ht="409.6">
       <c r="A379" s="18">
         <v>376</v>
       </c>
@@ -11474,7 +11571,7 @@
       <c r="E379" s="22"/>
       <c r="F379" s="23"/>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" ht="409.6">
       <c r="A380" s="18">
         <v>377</v>
       </c>
@@ -11484,7 +11581,7 @@
       <c r="E380" s="22"/>
       <c r="F380" s="23"/>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" ht="409.6">
       <c r="A381" s="18">
         <v>378</v>
       </c>
@@ -11494,7 +11591,7 @@
       <c r="E381" s="22"/>
       <c r="F381" s="23"/>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" ht="409.6">
       <c r="A382" s="18">
         <v>379</v>
       </c>
@@ -11504,7 +11601,7 @@
       <c r="E382" s="22"/>
       <c r="F382" s="23"/>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" ht="409.6">
       <c r="A383" s="18">
         <v>380</v>
       </c>
@@ -11514,7 +11611,7 @@
       <c r="E383" s="22"/>
       <c r="F383" s="23"/>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" ht="409.6">
       <c r="A384" s="18">
         <v>381</v>
       </c>
@@ -11524,7 +11621,7 @@
       <c r="E384" s="22"/>
       <c r="F384" s="23"/>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" ht="409.6">
       <c r="A385" s="18">
         <v>382</v>
       </c>
@@ -11534,7 +11631,7 @@
       <c r="E385" s="22"/>
       <c r="F385" s="23"/>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" ht="409.6">
       <c r="A386" s="18">
         <v>383</v>
       </c>
@@ -11544,7 +11641,7 @@
       <c r="E386" s="22"/>
       <c r="F386" s="23"/>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" ht="409.6">
       <c r="A387" s="18">
         <v>384</v>
       </c>
@@ -11554,7 +11651,7 @@
       <c r="E387" s="22"/>
       <c r="F387" s="23"/>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" ht="409.6">
       <c r="A388" s="18">
         <v>385</v>
       </c>
@@ -11564,7 +11661,7 @@
       <c r="E388" s="22"/>
       <c r="F388" s="23"/>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="409.6">
       <c r="A389" s="18">
         <v>386</v>
       </c>
@@ -11574,7 +11671,7 @@
       <c r="E389" s="22"/>
       <c r="F389" s="23"/>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" ht="409.6">
       <c r="A390" s="18">
         <v>387</v>
       </c>
@@ -11584,7 +11681,7 @@
       <c r="E390" s="22"/>
       <c r="F390" s="23"/>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" ht="409.6">
       <c r="A391" s="18">
         <v>388</v>
       </c>
@@ -11594,7 +11691,7 @@
       <c r="E391" s="22"/>
       <c r="F391" s="23"/>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" ht="409.6">
       <c r="A392" s="18">
         <v>389</v>
       </c>
@@ -11604,7 +11701,7 @@
       <c r="E392" s="22"/>
       <c r="F392" s="23"/>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" ht="409.6">
       <c r="A393" s="18">
         <v>390</v>
       </c>
@@ -11614,7 +11711,7 @@
       <c r="E393" s="22"/>
       <c r="F393" s="23"/>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" ht="409.6">
       <c r="A394" s="18">
         <v>391</v>
       </c>
@@ -11624,7 +11721,7 @@
       <c r="E394" s="22"/>
       <c r="F394" s="23"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" ht="409.6">
       <c r="A395" s="18">
         <v>392</v>
       </c>
@@ -11634,7 +11731,7 @@
       <c r="E395" s="22"/>
       <c r="F395" s="23"/>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" ht="409.6">
       <c r="A396" s="18">
         <v>393</v>
       </c>
@@ -11644,7 +11741,7 @@
       <c r="E396" s="22"/>
       <c r="F396" s="23"/>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" ht="409.6">
       <c r="A397" s="18">
         <v>394</v>
       </c>
@@ -11654,7 +11751,7 @@
       <c r="E397" s="22"/>
       <c r="F397" s="23"/>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" ht="409.6">
       <c r="A398" s="18">
         <v>395</v>
       </c>
@@ -11664,7 +11761,7 @@
       <c r="E398" s="22"/>
       <c r="F398" s="23"/>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" ht="409.6">
       <c r="A399" s="18">
         <v>396</v>
       </c>
@@ -11674,7 +11771,7 @@
       <c r="E399" s="22"/>
       <c r="F399" s="23"/>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" ht="409.6">
       <c r="A400" s="18">
         <v>397</v>
       </c>
@@ -11684,7 +11781,7 @@
       <c r="E400" s="22"/>
       <c r="F400" s="23"/>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" ht="409.6">
       <c r="A401" s="18">
         <v>398</v>
       </c>
@@ -11694,7 +11791,7 @@
       <c r="E401" s="22"/>
       <c r="F401" s="23"/>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" ht="409.6">
       <c r="A402" s="18">
         <v>399</v>
       </c>
@@ -11704,7 +11801,7 @@
       <c r="E402" s="22"/>
       <c r="F402" s="23"/>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" ht="409.6">
       <c r="A403" s="18">
         <v>400</v>
       </c>
@@ -11714,7 +11811,7 @@
       <c r="E403" s="22"/>
       <c r="F403" s="23"/>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" ht="409.6">
       <c r="A404" s="18">
         <v>401</v>
       </c>
@@ -11724,7 +11821,7 @@
       <c r="E404" s="22"/>
       <c r="F404" s="23"/>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" ht="409.6">
       <c r="A405" s="18">
         <v>402</v>
       </c>
@@ -11734,7 +11831,7 @@
       <c r="E405" s="22"/>
       <c r="F405" s="23"/>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" ht="409.6">
       <c r="A406" s="18">
         <v>403</v>
       </c>
@@ -11744,7 +11841,7 @@
       <c r="E406" s="22"/>
       <c r="F406" s="23"/>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" ht="409.6">
       <c r="A407" s="18">
         <v>404</v>
       </c>
@@ -11754,7 +11851,7 @@
       <c r="E407" s="22"/>
       <c r="F407" s="23"/>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" ht="409.6">
       <c r="A408" s="18">
         <v>405</v>
       </c>
@@ -11764,7 +11861,7 @@
       <c r="E408" s="22"/>
       <c r="F408" s="23"/>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" ht="409.6">
       <c r="A409" s="18">
         <v>406</v>
       </c>
@@ -11774,7 +11871,7 @@
       <c r="E409" s="22"/>
       <c r="F409" s="23"/>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" ht="409.6">
       <c r="A410" s="18">
         <v>407</v>
       </c>
@@ -11784,7 +11881,7 @@
       <c r="E410" s="22"/>
       <c r="F410" s="23"/>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" ht="409.6">
       <c r="A411" s="18">
         <v>408</v>
       </c>
@@ -11794,7 +11891,7 @@
       <c r="E411" s="22"/>
       <c r="F411" s="23"/>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" ht="409.6">
       <c r="A412" s="18">
         <v>409</v>
       </c>
@@ -11804,7 +11901,7 @@
       <c r="E412" s="22"/>
       <c r="F412" s="23"/>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" ht="409.6">
       <c r="A413" s="18">
         <v>410</v>
       </c>
@@ -11814,7 +11911,7 @@
       <c r="E413" s="22"/>
       <c r="F413" s="23"/>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" ht="409.6">
       <c r="A414" s="18">
         <v>411</v>
       </c>
@@ -11824,7 +11921,7 @@
       <c r="E414" s="22"/>
       <c r="F414" s="23"/>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" ht="409.6">
       <c r="A415" s="18">
         <v>412</v>
       </c>
@@ -11834,7 +11931,7 @@
       <c r="E415" s="22"/>
       <c r="F415" s="23"/>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" ht="409.6">
       <c r="A416" s="18">
         <v>413</v>
       </c>
@@ -11844,7 +11941,7 @@
       <c r="E416" s="22"/>
       <c r="F416" s="23"/>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" ht="409.6">
       <c r="A417" s="18">
         <v>414</v>
       </c>
@@ -11854,7 +11951,7 @@
       <c r="E417" s="22"/>
       <c r="F417" s="23"/>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" ht="409.6">
       <c r="A418" s="18">
         <v>415</v>
       </c>
@@ -11864,7 +11961,7 @@
       <c r="E418" s="22"/>
       <c r="F418" s="23"/>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" ht="409.6">
       <c r="A419" s="18">
         <v>416</v>
       </c>
@@ -11874,7 +11971,7 @@
       <c r="E419" s="22"/>
       <c r="F419" s="23"/>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" ht="409.6">
       <c r="A420" s="18">
         <v>417</v>
       </c>
@@ -11884,7 +11981,7 @@
       <c r="E420" s="22"/>
       <c r="F420" s="23"/>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" ht="409.6">
       <c r="A421" s="18">
         <v>418</v>
       </c>
@@ -11894,7 +11991,7 @@
       <c r="E421" s="22"/>
       <c r="F421" s="23"/>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" ht="409.6">
       <c r="A422" s="18">
         <v>419</v>
       </c>
@@ -11904,7 +12001,7 @@
       <c r="E422" s="22"/>
       <c r="F422" s="23"/>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" ht="409.6">
       <c r="A423" s="18">
         <v>420</v>
       </c>
@@ -11914,7 +12011,7 @@
       <c r="E423" s="22"/>
       <c r="F423" s="23"/>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" ht="409.6">
       <c r="A424" s="18">
         <v>421</v>
       </c>
@@ -11924,7 +12021,7 @@
       <c r="E424" s="22"/>
       <c r="F424" s="23"/>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" ht="409.6">
       <c r="A425" s="18">
         <v>422</v>
       </c>
@@ -11934,7 +12031,7 @@
       <c r="E425" s="22"/>
       <c r="F425" s="23"/>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" ht="409.6">
       <c r="A426" s="18">
         <v>423</v>
       </c>
@@ -11944,7 +12041,7 @@
       <c r="E426" s="22"/>
       <c r="F426" s="23"/>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" ht="409.6">
       <c r="A427" s="18">
         <v>424</v>
       </c>
@@ -11954,7 +12051,7 @@
       <c r="E427" s="22"/>
       <c r="F427" s="23"/>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" ht="409.6">
       <c r="A428" s="18">
         <v>425</v>
       </c>
@@ -11964,7 +12061,7 @@
       <c r="E428" s="22"/>
       <c r="F428" s="23"/>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" ht="409.6">
       <c r="A429" s="18">
         <v>426</v>
       </c>
@@ -11974,7 +12071,7 @@
       <c r="E429" s="22"/>
       <c r="F429" s="23"/>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" ht="409.6">
       <c r="A430" s="18">
         <v>427</v>
       </c>
@@ -11984,7 +12081,7 @@
       <c r="E430" s="22"/>
       <c r="F430" s="23"/>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" ht="409.6">
       <c r="A431" s="18">
         <v>428</v>
       </c>
@@ -11994,7 +12091,7 @@
       <c r="E431" s="22"/>
       <c r="F431" s="23"/>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" ht="409.6">
       <c r="A432" s="18">
         <v>429</v>
       </c>
@@ -12004,7 +12101,7 @@
       <c r="E432" s="22"/>
       <c r="F432" s="23"/>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" ht="409.6">
       <c r="A433" s="18">
         <v>430</v>
       </c>
@@ -12014,7 +12111,7 @@
       <c r="E433" s="22"/>
       <c r="F433" s="23"/>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" ht="409.6">
       <c r="A434" s="18">
         <v>431</v>
       </c>
@@ -12024,7 +12121,7 @@
       <c r="E434" s="22"/>
       <c r="F434" s="23"/>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" ht="409.6">
       <c r="A435" s="18">
         <v>432</v>
       </c>
@@ -12034,7 +12131,7 @@
       <c r="E435" s="22"/>
       <c r="F435" s="23"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" ht="409.6">
       <c r="A436" s="18">
         <v>433</v>
       </c>
@@ -12044,7 +12141,7 @@
       <c r="E436" s="22"/>
       <c r="F436" s="23"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" ht="409.6">
       <c r="A437" s="18">
         <v>434</v>
       </c>
@@ -12054,7 +12151,7 @@
       <c r="E437" s="22"/>
       <c r="F437" s="23"/>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" ht="409.6">
       <c r="A438" s="18">
         <v>435</v>
       </c>
@@ -12064,7 +12161,7 @@
       <c r="E438" s="22"/>
       <c r="F438" s="23"/>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" ht="409.6">
       <c r="A439" s="18">
         <v>436</v>
       </c>
@@ -12074,7 +12171,7 @@
       <c r="E439" s="22"/>
       <c r="F439" s="23"/>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" ht="409.6">
       <c r="A440" s="18">
         <v>437</v>
       </c>
@@ -12084,7 +12181,7 @@
       <c r="E440" s="22"/>
       <c r="F440" s="23"/>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" ht="409.6">
       <c r="A441" s="18">
         <v>438</v>
       </c>
@@ -12094,7 +12191,7 @@
       <c r="E441" s="22"/>
       <c r="F441" s="23"/>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" ht="409.6">
       <c r="A442" s="18">
         <v>439</v>
       </c>
@@ -12104,7 +12201,7 @@
       <c r="E442" s="22"/>
       <c r="F442" s="23"/>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" ht="409.6">
       <c r="A443" s="18">
         <v>440</v>
       </c>
@@ -12114,7 +12211,7 @@
       <c r="E443" s="22"/>
       <c r="F443" s="23"/>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" ht="409.6">
       <c r="A444" s="18">
         <v>441</v>
       </c>
@@ -12124,7 +12221,7 @@
       <c r="E444" s="22"/>
       <c r="F444" s="23"/>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" ht="409.6">
       <c r="A445" s="18">
         <v>442</v>
       </c>
@@ -12134,7 +12231,7 @@
       <c r="E445" s="22"/>
       <c r="F445" s="23"/>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" ht="409.6">
       <c r="A446" s="18">
         <v>443</v>
       </c>
@@ -12144,7 +12241,7 @@
       <c r="E446" s="22"/>
       <c r="F446" s="23"/>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" ht="409.6">
       <c r="A447" s="18">
         <v>444</v>
       </c>
@@ -12154,7 +12251,7 @@
       <c r="E447" s="22"/>
       <c r="F447" s="23"/>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" ht="409.6">
       <c r="A448" s="18">
         <v>445</v>
       </c>
@@ -12164,7 +12261,7 @@
       <c r="E448" s="22"/>
       <c r="F448" s="23"/>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" ht="409.6">
       <c r="A449" s="18">
         <v>446</v>
       </c>
@@ -12174,7 +12271,7 @@
       <c r="E449" s="22"/>
       <c r="F449" s="23"/>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" ht="409.6">
       <c r="A450" s="18">
         <v>447</v>
       </c>
@@ -12184,7 +12281,7 @@
       <c r="E450" s="22"/>
       <c r="F450" s="23"/>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" ht="409.6">
       <c r="A451" s="18">
         <v>448</v>
       </c>
@@ -12194,7 +12291,7 @@
       <c r="E451" s="22"/>
       <c r="F451" s="23"/>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" ht="409.6">
       <c r="A452" s="18">
         <v>449</v>
       </c>
@@ -12204,7 +12301,7 @@
       <c r="E452" s="22"/>
       <c r="F452" s="23"/>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" ht="409.6">
       <c r="A453" s="18">
         <v>450</v>
       </c>
@@ -12214,7 +12311,7 @@
       <c r="E453" s="22"/>
       <c r="F453" s="23"/>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" ht="409.6">
       <c r="A454" s="18">
         <v>451</v>
       </c>
@@ -12224,7 +12321,7 @@
       <c r="E454" s="22"/>
       <c r="F454" s="23"/>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" ht="409.6">
       <c r="A455" s="18">
         <v>452</v>
       </c>
@@ -12234,7 +12331,7 @@
       <c r="E455" s="22"/>
       <c r="F455" s="23"/>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" ht="409.6">
       <c r="A456" s="18">
         <v>453</v>
       </c>
@@ -12244,7 +12341,7 @@
       <c r="E456" s="22"/>
       <c r="F456" s="23"/>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" ht="409.6">
       <c r="A457" s="18">
         <v>454</v>
       </c>
@@ -12254,7 +12351,7 @@
       <c r="E457" s="22"/>
       <c r="F457" s="23"/>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" ht="409.6">
       <c r="A458" s="18">
         <v>455</v>
       </c>
@@ -12264,7 +12361,7 @@
       <c r="E458" s="22"/>
       <c r="F458" s="23"/>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" ht="409.6">
       <c r="A459" s="18">
         <v>456</v>
       </c>
@@ -12274,7 +12371,7 @@
       <c r="E459" s="22"/>
       <c r="F459" s="23"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" ht="409.6">
       <c r="A460" s="18">
         <v>457</v>
       </c>
@@ -12284,7 +12381,7 @@
       <c r="E460" s="22"/>
       <c r="F460" s="23"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" ht="409.6">
       <c r="A461" s="18">
         <v>458</v>
       </c>
@@ -12294,7 +12391,7 @@
       <c r="E461" s="22"/>
       <c r="F461" s="23"/>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" ht="409.6">
       <c r="A462" s="18">
         <v>459</v>
       </c>
@@ -12304,7 +12401,7 @@
       <c r="E462" s="22"/>
       <c r="F462" s="23"/>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" ht="409.6">
       <c r="A463" s="18">
         <v>460</v>
       </c>
@@ -12314,7 +12411,7 @@
       <c r="E463" s="22"/>
       <c r="F463" s="23"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" ht="409.6">
       <c r="A464" s="18">
         <v>461</v>
       </c>
@@ -12324,7 +12421,7 @@
       <c r="E464" s="22"/>
       <c r="F464" s="23"/>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" ht="409.6">
       <c r="A465" s="18">
         <v>462</v>
       </c>
@@ -12334,7 +12431,7 @@
       <c r="E465" s="22"/>
       <c r="F465" s="23"/>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" ht="409.6">
       <c r="A466" s="18">
         <v>463</v>
       </c>
@@ -12344,7 +12441,7 @@
       <c r="E466" s="22"/>
       <c r="F466" s="23"/>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" ht="409.6">
       <c r="A467" s="18">
         <v>464</v>
       </c>
@@ -12354,7 +12451,7 @@
       <c r="E467" s="22"/>
       <c r="F467" s="23"/>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" ht="409.6">
       <c r="A468" s="18">
         <v>465</v>
       </c>
@@ -12364,7 +12461,7 @@
       <c r="E468" s="22"/>
       <c r="F468" s="23"/>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" ht="409.6">
       <c r="A469" s="18">
         <v>466</v>
       </c>
@@ -12374,7 +12471,7 @@
       <c r="E469" s="22"/>
       <c r="F469" s="23"/>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" ht="409.6">
       <c r="A470" s="18">
         <v>467</v>
       </c>
@@ -12384,7 +12481,7 @@
       <c r="E470" s="22"/>
       <c r="F470" s="23"/>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" ht="409.6">
       <c r="A471" s="18">
         <v>468</v>
       </c>
@@ -12394,7 +12491,7 @@
       <c r="E471" s="22"/>
       <c r="F471" s="23"/>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" ht="409.6">
       <c r="A472" s="18">
         <v>469</v>
       </c>
@@ -12404,7 +12501,7 @@
       <c r="E472" s="22"/>
       <c r="F472" s="23"/>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" ht="409.6">
       <c r="A473" s="18">
         <v>470</v>
       </c>
@@ -12414,7 +12511,7 @@
       <c r="E473" s="22"/>
       <c r="F473" s="23"/>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" ht="409.6">
       <c r="A474" s="18">
         <v>471</v>
       </c>
@@ -12424,7 +12521,7 @@
       <c r="E474" s="22"/>
       <c r="F474" s="23"/>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" ht="409.6">
       <c r="A475" s="18">
         <v>472</v>
       </c>
@@ -12434,7 +12531,7 @@
       <c r="E475" s="22"/>
       <c r="F475" s="23"/>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" ht="409.6">
       <c r="A476" s="18">
         <v>473</v>
       </c>
@@ -12444,7 +12541,7 @@
       <c r="E476" s="22"/>
       <c r="F476" s="23"/>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" ht="409.6">
       <c r="A477" s="18">
         <v>474</v>
       </c>
@@ -12454,7 +12551,7 @@
       <c r="E477" s="22"/>
       <c r="F477" s="23"/>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" ht="409.6">
       <c r="A478" s="18">
         <v>475</v>
       </c>
@@ -12464,7 +12561,7 @@
       <c r="E478" s="22"/>
       <c r="F478" s="23"/>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" ht="409.6">
       <c r="A479" s="18">
         <v>476</v>
       </c>
@@ -12474,7 +12571,7 @@
       <c r="E479" s="22"/>
       <c r="F479" s="23"/>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" ht="409.6">
       <c r="A480" s="18">
         <v>477</v>
       </c>
@@ -12484,7 +12581,7 @@
       <c r="E480" s="22"/>
       <c r="F480" s="23"/>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" ht="409.6">
       <c r="A481" s="18">
         <v>478</v>
       </c>
@@ -12494,7 +12591,7 @@
       <c r="E481" s="22"/>
       <c r="F481" s="23"/>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" ht="409.6">
       <c r="A482" s="18">
         <v>479</v>
       </c>
@@ -12504,7 +12601,7 @@
       <c r="E482" s="22"/>
       <c r="F482" s="23"/>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" ht="409.6">
       <c r="A483" s="18">
         <v>480</v>
       </c>
@@ -12514,7 +12611,7 @@
       <c r="E483" s="22"/>
       <c r="F483" s="23"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" ht="409.6">
       <c r="A484" s="18">
         <v>481</v>
       </c>
@@ -12524,7 +12621,7 @@
       <c r="E484" s="22"/>
       <c r="F484" s="23"/>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" ht="409.6">
       <c r="A485" s="18">
         <v>482</v>
       </c>
@@ -12534,7 +12631,7 @@
       <c r="E485" s="22"/>
       <c r="F485" s="23"/>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" ht="409.6">
       <c r="A486" s="18">
         <v>483</v>
       </c>
@@ -12544,7 +12641,7 @@
       <c r="E486" s="22"/>
       <c r="F486" s="23"/>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" ht="409.6">
       <c r="A487" s="18">
         <v>484</v>
       </c>
@@ -12554,7 +12651,7 @@
       <c r="E487" s="22"/>
       <c r="F487" s="23"/>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" ht="409.6">
       <c r="A488" s="18">
         <v>485</v>
       </c>
@@ -12564,7 +12661,7 @@
       <c r="E488" s="22"/>
       <c r="F488" s="23"/>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" ht="409.6">
       <c r="A489" s="18">
         <v>486</v>
       </c>
@@ -12574,7 +12671,7 @@
       <c r="E489" s="22"/>
       <c r="F489" s="23"/>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" ht="409.6">
       <c r="A490" s="18">
         <v>487</v>
       </c>
@@ -12584,7 +12681,7 @@
       <c r="E490" s="22"/>
       <c r="F490" s="23"/>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" ht="409.6">
       <c r="A491" s="18">
         <v>488</v>
       </c>
@@ -12594,7 +12691,7 @@
       <c r="E491" s="22"/>
       <c r="F491" s="23"/>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" ht="409.6">
       <c r="A492" s="18">
         <v>489</v>
       </c>
@@ -12604,7 +12701,7 @@
       <c r="E492" s="22"/>
       <c r="F492" s="23"/>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" ht="409.6">
       <c r="A493" s="18">
         <v>490</v>
       </c>
@@ -12614,7 +12711,7 @@
       <c r="E493" s="22"/>
       <c r="F493" s="23"/>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" ht="409.6">
       <c r="A494" s="18">
         <v>491</v>
       </c>
@@ -12624,7 +12721,7 @@
       <c r="E494" s="22"/>
       <c r="F494" s="23"/>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" ht="409.6">
       <c r="A495" s="18">
         <v>492</v>
       </c>
@@ -12634,7 +12731,7 @@
       <c r="E495" s="22"/>
       <c r="F495" s="23"/>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" ht="409.6">
       <c r="A496" s="18">
         <v>493</v>
       </c>
@@ -12644,7 +12741,7 @@
       <c r="E496" s="22"/>
       <c r="F496" s="23"/>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" ht="409.6">
       <c r="A497" s="18">
         <v>494</v>
       </c>
@@ -12654,7 +12751,7 @@
       <c r="E497" s="22"/>
       <c r="F497" s="23"/>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" ht="409.6">
       <c r="A498" s="18">
         <v>495</v>
       </c>
@@ -12664,7 +12761,7 @@
       <c r="E498" s="22"/>
       <c r="F498" s="23"/>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" ht="409.6">
       <c r="A499" s="18">
         <v>496</v>
       </c>
@@ -12674,7 +12771,7 @@
       <c r="E499" s="22"/>
       <c r="F499" s="23"/>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" ht="409.6">
       <c r="A500" s="18">
         <v>497</v>
       </c>
@@ -12684,7 +12781,7 @@
       <c r="E500" s="22"/>
       <c r="F500" s="23"/>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" ht="409.6">
       <c r="A501" s="18">
         <v>498</v>
       </c>
@@ -12694,7 +12791,7 @@
       <c r="E501" s="22"/>
       <c r="F501" s="23"/>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" ht="409.6">
       <c r="A502" s="18">
         <v>499</v>
       </c>
